--- a/medicine/Mort/La_Mort_des_oiseaux/La_Mort_des_oiseaux.xlsx
+++ b/medicine/Mort/La_Mort_des_oiseaux/La_Mort_des_oiseaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mort des oiseaux est un poème de François Coppée, issu du recueil Promenades et Intérieurs (V) publié en 1872.
 Il est considéré comme l’une des poésies les plus connues de l’auteur. Par sa teneur bucolique et sa faible longueur, il a longtemps été proposé à l'étude ou à la mémorisation des enfants de l'école primaire française.
@@ -512,7 +524,9 @@
           <t>Texte du poème</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le soir, au coin du feu, j’ai pensé bien des fois,
@@ -553,7 +567,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les oiseaux se cachent pour mourir</t>
         </is>
